--- a/biology/Médecine/Sinus_de_la_dure-mère/Sinus_de_la_dure-mère.xlsx
+++ b/biology/Médecine/Sinus_de_la_dure-mère/Sinus_de_la_dure-mère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sinus_de_la_dure-m%C3%A8re</t>
+          <t>Sinus_de_la_dure-mère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sinus veineux de la dure-mère (ou sinus crâniens ou sinus veineux de la dure-mère ou sinus veineux du crâne) sont des canaux veineux situés entre le périoste et les méninges de la dure-mère[1],[2].
-Ils reçoivent le sang des veines cérébrales, le liquide céphalo-rachidien de l'espace sous-arachnoïdien via les granulations arachnoïdiennes et sont drainés principalement par la veine jugulaire interne[2]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sinus veineux de la dure-mère (ou sinus crâniens ou sinus veineux de la dure-mère ou sinus veineux du crâne) sont des canaux veineux situés entre le périoste et les méninges de la dure-mère,.
+Ils reçoivent le sang des veines cérébrales, le liquide céphalo-rachidien de l'espace sous-arachnoïdien via les granulations arachnoïdiennes et sont drainés principalement par la veine jugulaire interne
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sinus_de_la_dure-m%C3%A8re</t>
+          <t>Sinus_de_la_dure-mère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sinus_de_la_dure-m%C3%A8re</t>
+          <t>Sinus_de_la_dure-mère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parois des sinus veineux duraux sont composées de dure-mère tapissée d'endothélium vasculaire.
 Ils diffèrent des autres vaisseaux sanguins car certains éléments caractéristiques des artères et des veines sont absents comme par exemple la media ou les valves.
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sinus_de_la_dure-m%C3%A8re</t>
+          <t>Sinus_de_la_dure-mère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,11 +586,13 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sinus peuvent être touchés lors d'un traumatisme crânien causant des dommages à la dure-mère et entraînant la formation de caillots sanguins (thrombose) dans les sinus duraux.
 D'autres causes courantes de thrombose du sinus dural sont les complications de la cellulite orbitaire par extension de l'infection via la veine ophtalmique.
-Bien que rare, la thrombose du sinus dural peut entraîner un infarctus hémorragique ou un œdème cérébral avec des conséquences graves telles que l'épilepsie, des déficits neurologiques ou la mort[3].
+Bien que rare, la thrombose du sinus dural peut entraîner un infarctus hémorragique ou un œdème cérébral avec des conséquences graves telles que l'épilepsie, des déficits neurologiques ou la mort.
 </t>
         </is>
       </c>
